--- a/Results/Act/Price/Results_world_act_price_Min.xlsx
+++ b/Results/Act/Price/Results_world_act_price_Min.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -28,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>291.1427981725336</v>
+        <v>1336.112886539807</v>
       </c>
       <c r="E2">
-        <v>336.1960858928227</v>
+        <v>1741.349073110967</v>
       </c>
       <c r="F2">
-        <v>555.7883226224047</v>
+        <v>1740.494277219579</v>
       </c>
       <c r="G2">
-        <v>411.7706980344685</v>
+        <v>1653.937025247493</v>
       </c>
       <c r="H2">
-        <v>1054.428842563688</v>
+        <v>2218.309009062298</v>
       </c>
       <c r="I2">
-        <v>605.8663531711983</v>
+        <v>1600.350755623582</v>
       </c>
       <c r="J2">
-        <v>676.1168369799315</v>
+        <v>2895.720155977679</v>
       </c>
       <c r="K2">
-        <v>777.7015341507033</v>
+        <v>2878.742172124375</v>
       </c>
       <c r="L2">
-        <v>619.924580750167</v>
+        <v>2561.484779067013</v>
       </c>
       <c r="M2">
-        <v>760.7803200754923</v>
+        <v>2360.982575370901</v>
       </c>
       <c r="N2">
-        <v>386.3700300062212</v>
+        <v>5050.643996634845</v>
       </c>
       <c r="O2">
-        <v>429.7036189950714</v>
+        <v>3065.795669169507</v>
       </c>
       <c r="P2">
-        <v>863.3862437065433</v>
+        <v>6144.659754021626</v>
       </c>
       <c r="Q2">
-        <v>877.2895901029685</v>
+        <v>6631.050225713137</v>
       </c>
       <c r="R2">
-        <v>891.6863489606098</v>
+        <v>7122.959678573539</v>
       </c>
       <c r="S2">
-        <v>2208.691979362119</v>
+        <v>15574.21500443678</v>
       </c>
       <c r="T2">
-        <v>2205.580391894117</v>
+        <v>16674.92149878088</v>
       </c>
       <c r="U2">
-        <v>2209.87851456596</v>
+        <v>17786.90637668157</v>
       </c>
       <c r="V2">
-        <v>2223.205684986974</v>
+        <v>18917.77791888504</v>
       </c>
       <c r="W2">
-        <v>2237.58004147173</v>
+        <v>20063.43709829807</v>
       </c>
       <c r="X2">
-        <v>2062.386963613827</v>
+        <v>20151.94086393046</v>
       </c>
       <c r="Y2">
-        <v>2081.923363617719</v>
+        <v>21245.97900297386</v>
       </c>
       <c r="Z2">
-        <v>2097.16626266805</v>
+        <v>22347.55200312544</v>
       </c>
       <c r="AA2">
-        <v>2114.918907217111</v>
+        <v>23469.12435309793</v>
       </c>
       <c r="AB2">
-        <v>2160.102120173383</v>
+        <v>24618.42597178404</v>
       </c>
       <c r="AC2">
-        <v>735.0572930965379</v>
+        <v>11440.98873843809</v>
       </c>
       <c r="AD2">
-        <v>815.2014186145541</v>
+        <v>11740.19817623024</v>
       </c>
       <c r="AE2">
-        <v>892.9995401260746</v>
+        <v>12118.07502099068</v>
       </c>
       <c r="AF2">
-        <v>889.5266180310734</v>
+        <v>12485.17433632429</v>
       </c>
       <c r="AG2">
-        <v>864.7366533543127</v>
+        <v>12911.12361131231</v>
       </c>
       <c r="AH2">
-        <v>658.3719293504257</v>
+        <v>8165.879406894737</v>
       </c>
       <c r="AI2">
-        <v>644.4992488008552</v>
+        <v>8224.099708461863</v>
       </c>
       <c r="AJ2">
-        <v>625.9161834830882</v>
+        <v>8567.684258629446</v>
       </c>
       <c r="AK2">
-        <v>615.156398435524</v>
+        <v>9189.821331990403</v>
       </c>
       <c r="AL2">
-        <v>681.8947851358805</v>
+        <v>9795.114131010943</v>
       </c>
       <c r="AM2">
-        <v>826.2203089618774</v>
+        <v>12987.99020656736</v>
       </c>
       <c r="AN2">
-        <v>984.9094946236245</v>
+        <v>14464.4550265803</v>
       </c>
       <c r="AO2">
-        <v>1208.392286150128</v>
+        <v>16496.72354950768</v>
       </c>
       <c r="AP2">
-        <v>1493.561689486521</v>
+        <v>19099.38673103836</v>
       </c>
       <c r="AQ2">
-        <v>1642.792499388213</v>
+        <v>20941.18009475924</v>
       </c>
       <c r="AR2">
-        <v>1662.732174295384</v>
+        <v>26066.89062901487</v>
       </c>
       <c r="AS2">
-        <v>1666.271983562287</v>
+        <v>27068.14331321609</v>
       </c>
       <c r="AT2">
-        <v>1654.159028065819</v>
+        <v>27887.87075724533</v>
       </c>
       <c r="AU2">
-        <v>1628.655263365537</v>
+        <v>28533.57357260952</v>
       </c>
       <c r="AV2">
-        <v>1625.631241762858</v>
+        <v>29169.82053572146</v>
       </c>
       <c r="AW2">
-        <v>1609.567079147258</v>
+        <v>30519.00033019029</v>
       </c>
       <c r="AX2">
-        <v>1772.593636502325</v>
+        <v>30160.33776755936</v>
       </c>
       <c r="AY2">
-        <v>1588.624450366642</v>
+        <v>28329.88176659548</v>
       </c>
       <c r="AZ2">
-        <v>1335.741505282729</v>
+        <v>25444.66386353805</v>
       </c>
       <c r="BA2">
-        <v>1228.833778848182</v>
+        <v>23999.35423562755</v>
       </c>
       <c r="BB2">
-        <v>1213.704318971582</v>
+        <v>22832.18546333928</v>
       </c>
       <c r="BC2">
-        <v>1199.891918342485</v>
+        <v>22632.95972386884</v>
       </c>
       <c r="BD2">
-        <v>1152.910590781491</v>
+        <v>21962.62947243114</v>
       </c>
       <c r="BE2">
-        <v>1097.204958204343</v>
+        <v>20993.873908348</v>
       </c>
       <c r="BF2">
-        <v>1066.350792291236</v>
+        <v>20657.37952687011</v>
       </c>
       <c r="BG2">
-        <v>1038.953706315033</v>
+        <v>20244.95827986034</v>
       </c>
       <c r="BH2">
-        <v>1076.489669352762</v>
+        <v>20975.15621955039</v>
       </c>
       <c r="BI2">
-        <v>1168.373790824154</v>
+        <v>22097.99235353636</v>
       </c>
       <c r="BJ2">
-        <v>1313.910376094067</v>
+        <v>23622.88715958369</v>
       </c>
       <c r="BK2">
-        <v>1496.103695972838</v>
+        <v>25254.04919930259</v>
       </c>
       <c r="BL2">
-        <v>1676.553695615608</v>
+        <v>26505.57708042626</v>
       </c>
       <c r="BM2">
-        <v>1860.626798429149</v>
+        <v>28342.96511194272</v>
       </c>
       <c r="BN2">
-        <v>1972.82543681783</v>
+        <v>30175.03943647048</v>
       </c>
       <c r="BO2">
-        <v>2009.993048832685</v>
+        <v>31821.66466189461</v>
       </c>
       <c r="BP2">
-        <v>2011.821222322809</v>
+        <v>32829.80093861774</v>
       </c>
       <c r="BQ2">
-        <v>1987.329368553153</v>
+        <v>33084.89658616517</v>
       </c>
       <c r="BR2">
-        <v>1973.970191331126</v>
+        <v>33421.84751228135</v>
       </c>
       <c r="BS2">
-        <v>1960.666505182795</v>
+        <v>33614.79861426729</v>
       </c>
       <c r="BT2">
-        <v>1940.341274222136</v>
+        <v>33477.79784961991</v>
       </c>
       <c r="BU2">
-        <v>1884.998890316046</v>
+        <v>32710.59772639514</v>
       </c>
       <c r="BV2">
-        <v>1745.943041777891</v>
+        <v>31080.48735276241</v>
       </c>
       <c r="BW2">
-        <v>1602.334408256729</v>
+        <v>29627.75016419435</v>
       </c>
       <c r="BX2">
-        <v>1517.715671645549</v>
+        <v>28550.02186696847</v>
       </c>
       <c r="BY2">
-        <v>1487.290668290738</v>
+        <v>27864.11371487247</v>
       </c>
       <c r="BZ2">
-        <v>1464.860614367392</v>
+        <v>27333.11746881464</v>
       </c>
       <c r="CA2">
-        <v>1416.708683130698</v>
+        <v>26530.19194402677</v>
       </c>
       <c r="CB2">
-        <v>1385.977390257746</v>
+        <v>26014.84142139772</v>
       </c>
       <c r="CC2">
-        <v>1374.820716789893</v>
+        <v>25711.86901243056</v>
       </c>
       <c r="CD2">
-        <v>1395.905786811768</v>
+        <v>25690.7030637809</v>
       </c>
       <c r="CE2">
-        <v>1460.359390611947</v>
+        <v>25957.5159102491</v>
       </c>
       <c r="CF2">
-        <v>1554.355582350582</v>
+        <v>26113.44889724408</v>
       </c>
       <c r="CG2">
-        <v>1703.878320244669</v>
+        <v>26686.5449545471</v>
       </c>
       <c r="CH2">
-        <v>1873.057832553202</v>
+        <v>27271.05742857168</v>
       </c>
       <c r="CI2">
-        <v>2037.722398902111</v>
+        <v>27827.76932059243</v>
       </c>
       <c r="CJ2">
-        <v>2172.493835020975</v>
+        <v>28358.89939171733</v>
       </c>
       <c r="CK2">
-        <v>2232.944626799007</v>
+        <v>28288.36941957627</v>
       </c>
       <c r="CL2">
-        <v>2267.00282225839</v>
+        <v>28500.73203696436</v>
       </c>
       <c r="CM2">
-        <v>2269.338979460661</v>
+        <v>28454.85872857881</v>
       </c>
       <c r="CN2">
-        <v>2257.487222181655</v>
+        <v>28195.16493495927</v>
       </c>
       <c r="CO2">
-        <v>2239.94401239216</v>
+        <v>27803.51874138058</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>18.32302388215296</v>
+        <v>104.1613861802878</v>
       </c>
       <c r="E3">
-        <v>27.44672891018264</v>
+        <v>136.1632925033508</v>
       </c>
       <c r="F3">
-        <v>47.12473111976284</v>
+        <v>135.9218827373873</v>
       </c>
       <c r="G3">
-        <v>34.05545965255016</v>
+        <v>129.0664589046953</v>
       </c>
       <c r="H3">
-        <v>92.49129875652801</v>
+        <v>173.8987644734785</v>
       </c>
       <c r="I3">
-        <v>51.82226675577241</v>
+        <v>124.9499432344673</v>
       </c>
       <c r="J3">
-        <v>57.98384417788955</v>
+        <v>227.3553429794706</v>
       </c>
       <c r="K3">
-        <v>66.83039758511165</v>
+        <v>225.7873936229125</v>
       </c>
       <c r="L3">
-        <v>52.55039770432136</v>
+        <v>200.7328169029263</v>
       </c>
       <c r="M3">
-        <v>65.11268233817694</v>
+        <v>184.7431384048058</v>
       </c>
       <c r="N3">
-        <v>30.83961239800516</v>
+        <v>397.587595045305</v>
       </c>
       <c r="O3">
-        <v>35.15414251314112</v>
+        <v>240.6254042483083</v>
       </c>
       <c r="P3">
-        <v>74.31443776883262</v>
+        <v>484.2402160507039</v>
       </c>
       <c r="Q3">
-        <v>75.5916741261027</v>
+        <v>522.6886289162716</v>
       </c>
       <c r="R3">
-        <v>76.92074967015832</v>
+        <v>561.578442409782</v>
       </c>
       <c r="S3">
-        <v>196.1336968011873</v>
+        <v>1230.490159524446</v>
       </c>
       <c r="T3">
-        <v>195.5959305721268</v>
+        <v>1317.57846159265</v>
       </c>
       <c r="U3">
-        <v>195.8325272868925</v>
+        <v>1405.560615958291</v>
       </c>
       <c r="V3">
-        <v>197.013161387294</v>
+        <v>1495.041205911142</v>
       </c>
       <c r="W3">
-        <v>198.3028817349725</v>
+        <v>1585.715005028081</v>
       </c>
       <c r="X3">
-        <v>182.4462546580703</v>
+        <v>1592.718091139125</v>
       </c>
       <c r="Y3">
-        <v>184.2795876129548</v>
+        <v>1679.396897109823</v>
       </c>
       <c r="Z3">
-        <v>185.663645409835</v>
+        <v>1766.719236444757</v>
       </c>
       <c r="AA3">
-        <v>187.3098658644014</v>
+        <v>1855.682501997164</v>
       </c>
       <c r="AB3">
-        <v>191.8250361190849</v>
+        <v>1946.913211280178</v>
       </c>
       <c r="AC3">
-        <v>63.45844783417077</v>
+        <v>903.9301884609193</v>
       </c>
       <c r="AD3">
-        <v>71.62208138492316</v>
+        <v>927.8924348139759</v>
       </c>
       <c r="AE3">
-        <v>79.53679534404159</v>
+        <v>958.2462375291776</v>
       </c>
       <c r="AF3">
-        <v>78.94376618318701</v>
+        <v>987.7540035501461</v>
       </c>
       <c r="AG3">
-        <v>76.11389219895609</v>
+        <v>1022.06411749186</v>
       </c>
       <c r="AH3">
-        <v>57.18289642712135</v>
+        <v>646.8107426247793</v>
       </c>
       <c r="AI3">
-        <v>55.4698393639427</v>
+        <v>651.7933920475565</v>
       </c>
       <c r="AJ3">
-        <v>53.25116616754583</v>
+        <v>680.0947986643542</v>
       </c>
       <c r="AK3">
-        <v>51.83677733796716</v>
+        <v>731.2498403040415</v>
       </c>
       <c r="AL3">
-        <v>58.51585049493676</v>
+        <v>781.1880008441374</v>
       </c>
       <c r="AM3">
-        <v>73.29810920444507</v>
+        <v>1037.267211498784</v>
       </c>
       <c r="AN3">
-        <v>89.5735674698373</v>
+        <v>1159.191156519033</v>
       </c>
       <c r="AO3">
-        <v>112.6194929794888</v>
+        <v>1327.694851281162</v>
       </c>
       <c r="AP3">
-        <v>142.115680061899</v>
+        <v>1544.570236033249</v>
       </c>
       <c r="AQ3">
-        <v>157.4008703543099</v>
+        <v>1699.896555187869</v>
       </c>
       <c r="AR3">
-        <v>159.1689539830182</v>
+        <v>2112.836432855534</v>
       </c>
       <c r="AS3">
-        <v>159.2388040541883</v>
+        <v>2198.866429053173</v>
       </c>
       <c r="AT3">
-        <v>157.6936158300675</v>
+        <v>2269.97641084862</v>
       </c>
       <c r="AU3">
-        <v>154.7736333890457</v>
+        <v>2326.683929735452</v>
       </c>
       <c r="AV3">
-        <v>154.0650530744304</v>
+        <v>2382.78936447355</v>
       </c>
       <c r="AW3">
-        <v>152.1189337442808</v>
+        <v>2494.352052218944</v>
       </c>
       <c r="AX3">
-        <v>165.6397669801094</v>
+        <v>2466.14207435052</v>
       </c>
       <c r="AY3">
-        <v>146.2285338994275</v>
+        <v>2312.455628603338</v>
       </c>
       <c r="AZ3">
-        <v>119.6258321131187</v>
+        <v>2068.06036272378</v>
       </c>
       <c r="BA3">
-        <v>108.2962770487129</v>
+        <v>1945.634134023</v>
       </c>
       <c r="BB3">
-        <v>106.9567932356527</v>
+        <v>1853.718475184444</v>
       </c>
       <c r="BC3">
-        <v>105.3331271667111</v>
+        <v>1837.424059935246</v>
       </c>
       <c r="BD3">
-        <v>100.2285224637586</v>
+        <v>1780.413570869045</v>
       </c>
       <c r="BE3">
-        <v>94.19500466341567</v>
+        <v>1697.323095557619</v>
       </c>
       <c r="BF3">
-        <v>90.74004244869965</v>
+        <v>1668.169705218821</v>
       </c>
       <c r="BG3">
-        <v>88.01657699877219</v>
+        <v>1637.822655145287</v>
       </c>
       <c r="BH3">
-        <v>91.65316295919773</v>
+        <v>1700.152578666036</v>
       </c>
       <c r="BI3">
-        <v>100.9548744333121</v>
+        <v>1796.152863511153</v>
       </c>
       <c r="BJ3">
-        <v>115.8520722467747</v>
+        <v>1926.700933384142</v>
       </c>
       <c r="BK3">
-        <v>134.5704470969188</v>
+        <v>2066.285917913566</v>
       </c>
       <c r="BL3">
-        <v>153.3926717878783</v>
+        <v>2176.221275525587</v>
       </c>
       <c r="BM3">
-        <v>172.2808956116981</v>
+        <v>2333.435094623937</v>
       </c>
       <c r="BN3">
-        <v>183.6512527010872</v>
+        <v>2490.04276032846</v>
       </c>
       <c r="BO3">
-        <v>187.1768642441633</v>
+        <v>2630.454294920492</v>
       </c>
       <c r="BP3">
-        <v>187.0113788090553</v>
+        <v>2715.490660136083</v>
       </c>
       <c r="BQ3">
-        <v>184.2952769023667</v>
+        <v>2736.978274526871</v>
       </c>
       <c r="BR3">
-        <v>182.5378209674576</v>
+        <v>2763.773417236303</v>
       </c>
       <c r="BS3">
-        <v>180.7969597444852</v>
+        <v>2778.040800773385</v>
       </c>
       <c r="BT3">
-        <v>178.3337948967316</v>
+        <v>2763.769332520829</v>
       </c>
       <c r="BU3">
-        <v>172.2212591730049</v>
+        <v>2695.161590313807</v>
       </c>
       <c r="BV3">
-        <v>157.5586066652337</v>
+        <v>2554.311595392212</v>
       </c>
       <c r="BW3">
-        <v>142.2214882258821</v>
+        <v>2427.046413151131</v>
       </c>
       <c r="BX3">
-        <v>133.062310036769</v>
+        <v>2332.231311473428</v>
       </c>
       <c r="BY3">
-        <v>129.5769639853672</v>
+        <v>2271.17209108983</v>
       </c>
       <c r="BZ3">
-        <v>126.9315396009367</v>
+        <v>2223.437704981527</v>
       </c>
       <c r="CA3">
-        <v>121.7983122339195</v>
+        <v>2154.096764687101</v>
       </c>
       <c r="CB3">
-        <v>118.2653537945904</v>
+        <v>2107.742364759951</v>
       </c>
       <c r="CC3">
-        <v>116.7751011838107</v>
+        <v>2079.418479545555</v>
       </c>
       <c r="CD3">
-        <v>118.6500095462866</v>
+        <v>2074.850915153045</v>
       </c>
       <c r="CE3">
-        <v>125.0523120722126</v>
+        <v>2094.329957538795</v>
       </c>
       <c r="CF3">
-        <v>134.7615363979438</v>
+        <v>2105.62180874783</v>
       </c>
       <c r="CG3">
-        <v>150.0206284261367</v>
+        <v>2149.773603568373</v>
       </c>
       <c r="CH3">
-        <v>167.3266938980581</v>
+        <v>2194.136605436539</v>
       </c>
       <c r="CI3">
-        <v>184.1527626400274</v>
+        <v>2235.37124234805</v>
       </c>
       <c r="CJ3">
-        <v>197.8463074950639</v>
+        <v>2273.607970314727</v>
       </c>
       <c r="CK3">
-        <v>204.0807434251212</v>
+        <v>2262.946558712796</v>
       </c>
       <c r="CL3">
-        <v>207.2134712792911</v>
+        <v>2273.214722663545</v>
       </c>
       <c r="CM3">
-        <v>207.0281198471447</v>
+        <v>2261.734693815382</v>
       </c>
       <c r="CN3">
-        <v>205.3601979591359</v>
+        <v>2232.460544357949</v>
       </c>
       <c r="CO3">
-        <v>203.0999231638083</v>
+        <v>2192.264703239352</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>29416026.01554968</v>
+        <v>2058513.65379853</v>
       </c>
       <c r="E4">
-        <v>29359757.81110423</v>
+        <v>1849039.576532102</v>
       </c>
       <c r="F4">
-        <v>32394019.13972466</v>
+        <v>1614191.535259771</v>
       </c>
       <c r="G4">
-        <v>32544976.29523178</v>
+        <v>1872405.792749716</v>
       </c>
       <c r="H4">
-        <v>29596327.03449646</v>
+        <v>2057586.132769824</v>
       </c>
       <c r="I4">
-        <v>29074461.53681714</v>
+        <v>1955571.350254048</v>
       </c>
       <c r="J4">
-        <v>32089610.63223814</v>
+        <v>2126106.859496844</v>
       </c>
       <c r="K4">
-        <v>36339330.38480607</v>
+        <v>1950181.85586877</v>
       </c>
       <c r="L4">
-        <v>36040011.67521591</v>
+        <v>1937108.548427087</v>
       </c>
       <c r="M4">
-        <v>38369801.25048</v>
+        <v>2583672.219469738</v>
       </c>
       <c r="N4">
-        <v>41518847.29289858</v>
+        <v>2451837.305408067</v>
       </c>
       <c r="O4">
-        <v>38446963.84640797</v>
+        <v>2428699.191177738</v>
       </c>
       <c r="P4">
-        <v>41689184.40788137</v>
+        <v>12588145.86876674</v>
       </c>
       <c r="Q4">
-        <v>43148288.1254248</v>
+        <v>12650250.62563043</v>
       </c>
       <c r="R4">
-        <v>44603022.15777974</v>
+        <v>12697504.29922922</v>
       </c>
       <c r="S4">
-        <v>48326375.4954321</v>
+        <v>39636792.33119702</v>
       </c>
       <c r="T4">
-        <v>49926574.64062712</v>
+        <v>39712958.65487965</v>
       </c>
       <c r="U4">
-        <v>51528410.00390618</v>
+        <v>39800469.69197143</v>
       </c>
       <c r="V4">
-        <v>53130756.38610126</v>
+        <v>39897332.09447004</v>
       </c>
       <c r="W4">
-        <v>54732899.20270441</v>
+        <v>40001366.47305208</v>
       </c>
       <c r="X4">
-        <v>56034479.08904119</v>
+        <v>41185711.12163158</v>
       </c>
       <c r="Y4">
-        <v>57530923.98288577</v>
+        <v>41300546.85817912</v>
       </c>
       <c r="Z4">
-        <v>59025490.80604301</v>
+        <v>41408365.16654971</v>
       </c>
       <c r="AA4">
-        <v>60519700.03260193</v>
+        <v>41521482.13828785</v>
       </c>
       <c r="AB4">
-        <v>62015742.53579599</v>
+        <v>41641190.09434226</v>
       </c>
       <c r="AC4">
-        <v>61054588.45225134</v>
+        <v>11240075.53863421</v>
       </c>
       <c r="AD4">
-        <v>62557859.84813896</v>
+        <v>11368188.0520632</v>
       </c>
       <c r="AE4">
-        <v>64061858.74023047</v>
+        <v>11512900.11046149</v>
       </c>
       <c r="AF4">
-        <v>65563192.79544567</v>
+        <v>11632944.67327747</v>
       </c>
       <c r="AG4">
-        <v>67063891.59166732</v>
+        <v>11782913.71458896</v>
       </c>
       <c r="AH4">
-        <v>68165601.82300511</v>
+        <v>2373380.422646912</v>
       </c>
       <c r="AI4">
-        <v>69700345.50774688</v>
+        <v>2390417.051878783</v>
       </c>
       <c r="AJ4">
-        <v>71242729.66818334</v>
+        <v>2535273.496498859</v>
       </c>
       <c r="AK4">
-        <v>72797150.30265099</v>
+        <v>2830799.680643378</v>
       </c>
       <c r="AL4">
-        <v>74369434.58730179</v>
+        <v>3195383.690855855</v>
       </c>
       <c r="AM4">
-        <v>75926285.30633324</v>
+        <v>8017547.340904547</v>
       </c>
       <c r="AN4">
-        <v>77489426.81507865</v>
+        <v>8723400.775707319</v>
       </c>
       <c r="AO4">
-        <v>79073294.29623124</v>
+        <v>9538230.157627717</v>
       </c>
       <c r="AP4">
-        <v>80675510.42177333</v>
+        <v>10454927.26043824</v>
       </c>
       <c r="AQ4">
-        <v>82235405.78483884</v>
+        <v>11055792.93580873</v>
       </c>
       <c r="AR4">
-        <v>83736994.94556762</v>
+        <v>17697090.14651245</v>
       </c>
       <c r="AS4">
-        <v>85228910.23948655</v>
+        <v>17864215.35520753</v>
       </c>
       <c r="AT4">
-        <v>86710596.73016846</v>
+        <v>17904694.39106153</v>
       </c>
       <c r="AU4">
-        <v>88182248.51283859</v>
+        <v>17816983.96029554</v>
       </c>
       <c r="AV4">
-        <v>89873225.83985683</v>
+        <v>17642066.1668154</v>
       </c>
       <c r="AW4">
-        <v>91494199.14593963</v>
+        <v>19048812.86304377</v>
       </c>
       <c r="AX4">
-        <v>93148770.50558771</v>
+        <v>18548771.39995796</v>
       </c>
       <c r="AY4">
-        <v>94639411.9402101</v>
+        <v>17760099.5378127</v>
       </c>
       <c r="AZ4">
-        <v>96102743.17595285</v>
+        <v>16801072.4013518</v>
       </c>
       <c r="BA4">
-        <v>97609990.77196118</v>
+        <v>16129687.0157031</v>
       </c>
       <c r="BB4">
-        <v>99211198.76655591</v>
+        <v>14534229.27118399</v>
       </c>
       <c r="BC4">
-        <v>100859854.4909871</v>
+        <v>14153966.57112733</v>
       </c>
       <c r="BD4">
-        <v>102505619.12477</v>
+        <v>13814588.04175064</v>
       </c>
       <c r="BE4">
-        <v>104153768.6817191</v>
+        <v>13590154.0983444</v>
       </c>
       <c r="BF4">
-        <v>105817273.0267507</v>
+        <v>13411391.68508722</v>
       </c>
       <c r="BG4">
-        <v>107537272.8710933</v>
+        <v>12612655.773333</v>
       </c>
       <c r="BH4">
-        <v>109318762.0926963</v>
+        <v>12565610.00047724</v>
       </c>
       <c r="BI4">
-        <v>111116293.788233</v>
+        <v>12727069.90428396</v>
       </c>
       <c r="BJ4">
-        <v>112928167.9814168</v>
+        <v>13013862.77474135</v>
       </c>
       <c r="BK4">
-        <v>114751602.1282617</v>
+        <v>13339077.64435093</v>
       </c>
       <c r="BL4">
-        <v>116604005.8798897</v>
+        <v>13511677.06314646</v>
       </c>
       <c r="BM4">
-        <v>118486143.8572174</v>
+        <v>13825950.06049349</v>
       </c>
       <c r="BN4">
-        <v>120346305.2285114</v>
+        <v>14063410.78975294</v>
       </c>
       <c r="BO4">
-        <v>122182620.0656867</v>
+        <v>14200299.48714834</v>
       </c>
       <c r="BP4">
-        <v>124006330.5188068</v>
+        <v>14213263.86864346</v>
       </c>
       <c r="BQ4">
-        <v>125920854.1615247</v>
+        <v>14113320.93747189</v>
       </c>
       <c r="BR4">
-        <v>127855309.1920093</v>
+        <v>13996841.19006295</v>
       </c>
       <c r="BS4">
-        <v>129786086.0595679</v>
+        <v>13842449.95973266</v>
       </c>
       <c r="BT4">
-        <v>131710063.7836159</v>
+        <v>13626699.78901889</v>
       </c>
       <c r="BU4">
-        <v>133618007.9308149</v>
+        <v>13315632.67116066</v>
       </c>
       <c r="BV4">
-        <v>135563439.5689857</v>
+        <v>12745678.47908759</v>
       </c>
       <c r="BW4">
-        <v>137523621.9542426</v>
+        <v>12359864.50476536</v>
       </c>
       <c r="BX4">
-        <v>139502353.8650441</v>
+        <v>12147000.53573686</v>
       </c>
       <c r="BY4">
-        <v>141501179.1736471</v>
+        <v>12091469.55530478</v>
       </c>
       <c r="BZ4">
-        <v>143507101.9003479</v>
+        <v>11993086.01156813</v>
       </c>
       <c r="CA4">
-        <v>145583521.2416081</v>
+        <v>11614247.49937761</v>
       </c>
       <c r="CB4">
-        <v>147688318.1529524</v>
+        <v>11494834.75469003</v>
       </c>
       <c r="CC4">
-        <v>149802298.9609177</v>
+        <v>11374861.21954579</v>
       </c>
       <c r="CD4">
-        <v>151928709.7814218</v>
+        <v>11245857.39533856</v>
       </c>
       <c r="CE4">
-        <v>154068906.8996223</v>
+        <v>11074611.87566042</v>
       </c>
       <c r="CF4">
-        <v>156293970.959457</v>
+        <v>10626230.90186092</v>
       </c>
       <c r="CG4">
-        <v>158557028.5448112</v>
+        <v>10749837.66182274</v>
       </c>
       <c r="CH4">
-        <v>160825945.4408152</v>
+        <v>10892448.52060805</v>
       </c>
       <c r="CI4">
-        <v>163094342.8049927</v>
+        <v>11033199.99053605</v>
       </c>
       <c r="CJ4">
-        <v>165354518.7864249</v>
+        <v>11156681.18494389</v>
       </c>
       <c r="CK4">
-        <v>167655097.3495948</v>
+        <v>10525059.66209143</v>
       </c>
       <c r="CL4">
-        <v>169978199.1118426</v>
+        <v>10564106.42403324</v>
       </c>
       <c r="CM4">
-        <v>172290875.6775704</v>
+        <v>10557856.92060884</v>
       </c>
       <c r="CN4">
-        <v>174597905.317225</v>
+        <v>10521255.93945466</v>
       </c>
       <c r="CO4">
-        <v>176901276.0221693</v>
+        <v>10469131.06723961</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1883170.740399775</v>
+        <v>2799009.773418657</v>
       </c>
       <c r="E5">
-        <v>1263930.004593356</v>
+        <v>1874493.410621359</v>
       </c>
       <c r="F5">
-        <v>633688.0094563918</v>
+        <v>1752284.106412402</v>
       </c>
       <c r="G5">
-        <v>389741.6522701243</v>
+        <v>1689026.525884567</v>
       </c>
       <c r="H5">
-        <v>365549.1111202562</v>
+        <v>1620800.941211471</v>
       </c>
       <c r="I5">
-        <v>259964.0228429435</v>
+        <v>2025150.141338837</v>
       </c>
       <c r="J5">
-        <v>213689.953203093</v>
+        <v>2228249.943051708</v>
       </c>
       <c r="K5">
-        <v>276715.3064706475</v>
+        <v>1939265.754665949</v>
       </c>
       <c r="L5">
-        <v>501270.6114492127</v>
+        <v>1794732.708123821</v>
       </c>
       <c r="M5">
-        <v>441777.1867936783</v>
+        <v>2008406.325513884</v>
       </c>
       <c r="N5">
-        <v>558297.142502115</v>
+        <v>2111732.065722952</v>
       </c>
       <c r="O5">
-        <v>700388.6747127763</v>
+        <v>2750109.580388339</v>
       </c>
       <c r="P5">
-        <v>4512952.884242774</v>
+        <v>21233175.98849486</v>
       </c>
       <c r="Q5">
-        <v>4528072.840161129</v>
+        <v>21264167.94501644</v>
       </c>
       <c r="R5">
-        <v>4546701.745919053</v>
+        <v>21302317.72915763</v>
       </c>
       <c r="S5">
-        <v>14357515.73485526</v>
+        <v>70567480.6059396</v>
       </c>
       <c r="T5">
-        <v>14383817.9577474</v>
+        <v>70622508.26112224</v>
       </c>
       <c r="U5">
-        <v>14413937.71122156</v>
+        <v>70687444.61245143</v>
       </c>
       <c r="V5">
-        <v>14447623.87152623</v>
+        <v>70763865.34240641</v>
       </c>
       <c r="W5">
-        <v>14484481.22634043</v>
+        <v>70854329.92199488</v>
       </c>
       <c r="X5">
-        <v>13879598.23497352</v>
+        <v>74604968.06394295</v>
       </c>
       <c r="Y5">
-        <v>13921568.91170837</v>
+        <v>74734871.19593693</v>
       </c>
       <c r="Z5">
-        <v>13965928.49721427</v>
+        <v>74894085.83666073</v>
       </c>
       <c r="AA5">
-        <v>14013361.08224296</v>
+        <v>75092909.91474019</v>
       </c>
       <c r="AB5">
-        <v>14065630.32491436</v>
+        <v>75345358.54735124</v>
       </c>
       <c r="AC5">
-        <v>2692144.040844826</v>
+        <v>21352527.41813234</v>
       </c>
       <c r="AD5">
-        <v>2765803.185898434</v>
+        <v>21772366.07667981</v>
       </c>
       <c r="AE5">
-        <v>2859990.567217913</v>
+        <v>22315756.68245531</v>
       </c>
       <c r="AF5">
-        <v>2983944.123348478</v>
+        <v>23015062.81706457</v>
       </c>
       <c r="AG5">
-        <v>3148366.238664633</v>
+        <v>23905014.34694</v>
       </c>
       <c r="AH5">
-        <v>1201662.170354442</v>
+        <v>6822408.491959937</v>
       </c>
       <c r="AI5">
-        <v>1479894.553184412</v>
+        <v>7936244.42595175</v>
       </c>
       <c r="AJ5">
-        <v>1828385.102544604</v>
+        <v>9271518.402475543</v>
       </c>
       <c r="AK5">
-        <v>2251456.140459551</v>
+        <v>11168184.35490352</v>
       </c>
       <c r="AL5">
-        <v>2748254.754330259</v>
+        <v>13354295.92100551</v>
       </c>
       <c r="AM5">
-        <v>3311696.247887516</v>
+        <v>23449557.78141152</v>
       </c>
       <c r="AN5">
-        <v>3927806.865478924</v>
+        <v>26006787.86415361</v>
       </c>
       <c r="AO5">
-        <v>4575606.948596044</v>
+        <v>28612989.58747309</v>
       </c>
       <c r="AP5">
-        <v>5227633.494671221</v>
+        <v>31140967.62879527</v>
       </c>
       <c r="AQ5">
-        <v>5851318.250588131</v>
+        <v>33445448.52009521</v>
       </c>
       <c r="AR5">
-        <v>6411393.349553283</v>
+        <v>46071669.06602301</v>
       </c>
       <c r="AS5">
-        <v>6873109.208858417</v>
+        <v>47541870.43769561</v>
       </c>
       <c r="AT5">
-        <v>7206053.226224218</v>
+        <v>48436024.01836541</v>
       </c>
       <c r="AU5">
-        <v>7387930.091388507</v>
+        <v>48693638.80851652</v>
       </c>
       <c r="AV5">
-        <v>8866279.870388042</v>
+        <v>48302975.65786036</v>
       </c>
       <c r="AW5">
-        <v>9138152.950286508</v>
+        <v>50426711.2047502</v>
       </c>
       <c r="AX5">
-        <v>8851224.107028203</v>
+        <v>48902413.50267284</v>
       </c>
       <c r="AY5">
-        <v>8443760.318956198</v>
+        <v>46974110.10420066</v>
       </c>
       <c r="AZ5">
-        <v>7949689.695817899</v>
+        <v>44784405.52215475</v>
       </c>
       <c r="BA5">
-        <v>7407969.95384451</v>
+        <v>42484377.32595544</v>
       </c>
       <c r="BB5">
-        <v>6647358.781111573</v>
+        <v>38402436.40454656</v>
       </c>
       <c r="BC5">
-        <v>6131163.340546147</v>
+        <v>36308677.10385675</v>
       </c>
       <c r="BD5">
-        <v>5682847.318114491</v>
+        <v>34494205.89092461</v>
       </c>
       <c r="BE5">
-        <v>5331192.76318946</v>
+        <v>33038663.53960358</v>
       </c>
       <c r="BF5">
-        <v>5096036.313987218</v>
+        <v>31986238.06635471</v>
       </c>
       <c r="BG5">
-        <v>4777658.760285592</v>
+        <v>30339834.62881793</v>
       </c>
       <c r="BH5">
-        <v>4792832.79890592</v>
+        <v>30079124.19881858</v>
       </c>
       <c r="BI5">
-        <v>4921729.080547892</v>
+        <v>30143893.19192662</v>
       </c>
       <c r="BJ5">
-        <v>5146796.246942155</v>
+        <v>30459119.1336952</v>
       </c>
       <c r="BK5">
-        <v>5446720.907541705</v>
+        <v>30940809.67991419</v>
       </c>
       <c r="BL5">
-        <v>5641836.143162694</v>
+        <v>31366971.48197017</v>
       </c>
       <c r="BM5">
-        <v>6024715.472513862</v>
+        <v>31932168.07249029</v>
       </c>
       <c r="BN5">
-        <v>6417619.848571463</v>
+        <v>32428218.22043588</v>
       </c>
       <c r="BO5">
-        <v>6801697.752039349</v>
+        <v>32795982.30743647</v>
       </c>
       <c r="BP5">
-        <v>7159942.568897958</v>
+        <v>32990496.18297857</v>
       </c>
       <c r="BQ5">
-        <v>7367840.34126706</v>
+        <v>33014073.44401652</v>
       </c>
       <c r="BR5">
-        <v>7632343.751295177</v>
+        <v>32790894.10429047</v>
       </c>
       <c r="BS5">
-        <v>7834357.319820128</v>
+        <v>32354908.64040592</v>
       </c>
       <c r="BT5">
-        <v>7967670.45309747</v>
+        <v>31722057.78231419</v>
       </c>
       <c r="BU5">
-        <v>8029568.835318773</v>
+        <v>30918985.525142</v>
       </c>
       <c r="BV5">
-        <v>7914067.336949529</v>
+        <v>29694023.70238407</v>
       </c>
       <c r="BW5">
-        <v>7840059.921869745</v>
+        <v>28657326.60265374</v>
       </c>
       <c r="BX5">
-        <v>7709310.684592078</v>
+        <v>27562041.1231249</v>
       </c>
       <c r="BY5">
-        <v>7534191.943227254</v>
+        <v>26444563.42102023</v>
       </c>
       <c r="BZ5">
-        <v>7330052.819489185</v>
+        <v>25335746.83761659</v>
       </c>
       <c r="CA5">
-        <v>7001865.795417924</v>
+        <v>23749851.48363279</v>
       </c>
       <c r="CB5">
-        <v>6792151.287279926</v>
+        <v>22719131.2344093</v>
       </c>
       <c r="CC5">
-        <v>6605409.80737905</v>
+        <v>21739563.19676344</v>
       </c>
       <c r="CD5">
-        <v>6455957.598193454</v>
+        <v>20807314.88548366</v>
       </c>
       <c r="CE5">
-        <v>6354407.603397856</v>
+        <v>19910992.50153812</v>
       </c>
       <c r="CF5">
-        <v>6180325.242144825</v>
+        <v>18160567.8798746</v>
       </c>
       <c r="CG5">
-        <v>6188799.721931351</v>
+        <v>17281540.99467955</v>
       </c>
       <c r="CH5">
-        <v>6250710.121876527</v>
+        <v>16379430.08349</v>
       </c>
       <c r="CI5">
-        <v>6360116.531976792</v>
+        <v>15434145.84411618</v>
       </c>
       <c r="CJ5">
-        <v>6508393.360380539</v>
+        <v>14428951.83537798</v>
       </c>
       <c r="CK5">
-        <v>6511974.198823554</v>
+        <v>11981784.65515423</v>
       </c>
       <c r="CL5">
-        <v>6705752.647810517</v>
+        <v>10826960.77299243</v>
       </c>
       <c r="CM5">
-        <v>6905038.682821212</v>
+        <v>9594275.355042219</v>
       </c>
       <c r="CN5">
-        <v>7098847.889648215</v>
+        <v>8289647.711578676</v>
       </c>
       <c r="CO5">
-        <v>7277346.383368025</v>
+        <v>6924112.824268313</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1336.112886539807</v>
+      </c>
+      <c r="E2">
+        <v>3077.461959650774</v>
+      </c>
+      <c r="F2">
+        <v>4817.956236870352</v>
+      </c>
+      <c r="G2">
+        <v>6471.893262117845</v>
+      </c>
+      <c r="H2">
+        <v>8690.202271180144</v>
+      </c>
+      <c r="I2">
+        <v>10290.55302680373</v>
+      </c>
+      <c r="J2">
+        <v>13186.2731827814</v>
+      </c>
+      <c r="K2">
+        <v>16065.01535490578</v>
+      </c>
+      <c r="L2">
+        <v>18626.50013397279</v>
+      </c>
+      <c r="M2">
+        <v>20987.48270934369</v>
+      </c>
+      <c r="N2">
+        <v>26038.12670597854</v>
+      </c>
+      <c r="O2">
+        <v>29103.92237514805</v>
+      </c>
+      <c r="P2">
+        <v>35248.58212916967</v>
+      </c>
+      <c r="Q2">
+        <v>41879.63235488281</v>
+      </c>
+      <c r="R2">
+        <v>49002.59203345635</v>
+      </c>
+      <c r="S2">
+        <v>64576.80703789313</v>
+      </c>
+      <c r="T2">
+        <v>81251.72853667401</v>
+      </c>
+      <c r="U2">
+        <v>99038.63491335558</v>
+      </c>
+      <c r="V2">
+        <v>117956.4128322406</v>
+      </c>
+      <c r="W2">
+        <v>138019.8499305387</v>
+      </c>
+      <c r="X2">
+        <v>158171.7907944692</v>
+      </c>
+      <c r="Y2">
+        <v>179417.769797443</v>
+      </c>
+      <c r="Z2">
+        <v>201765.3218005684</v>
+      </c>
+      <c r="AA2">
+        <v>225234.4461536664</v>
+      </c>
+      <c r="AB2">
+        <v>249852.8721254504</v>
+      </c>
+      <c r="AC2">
+        <v>261293.8608638885</v>
+      </c>
+      <c r="AD2">
+        <v>273034.0590401187</v>
+      </c>
+      <c r="AE2">
+        <v>285152.1340611094</v>
+      </c>
+      <c r="AF2">
+        <v>297637.3083974337</v>
+      </c>
+      <c r="AG2">
+        <v>310548.432008746</v>
+      </c>
+      <c r="AH2">
+        <v>318714.3114156407</v>
+      </c>
+      <c r="AI2">
+        <v>326938.4111241025</v>
+      </c>
+      <c r="AJ2">
+        <v>335506.095382732</v>
+      </c>
+      <c r="AK2">
+        <v>344695.9167147224</v>
+      </c>
+      <c r="AL2">
+        <v>354491.0308457334</v>
+      </c>
+      <c r="AM2">
+        <v>367479.0210523007</v>
+      </c>
+      <c r="AN2">
+        <v>381943.476078881</v>
+      </c>
+      <c r="AO2">
+        <v>398440.1996283887</v>
+      </c>
+      <c r="AP2">
+        <v>417539.5863594271</v>
+      </c>
+      <c r="AQ2">
+        <v>438480.7664541863</v>
+      </c>
+      <c r="AR2">
+        <v>464547.6570832012</v>
+      </c>
+      <c r="AS2">
+        <v>491615.8003964173</v>
+      </c>
+      <c r="AT2">
+        <v>519503.6711536626</v>
+      </c>
+      <c r="AU2">
+        <v>548037.2447262721</v>
+      </c>
+      <c r="AV2">
+        <v>577207.0652619936</v>
+      </c>
+      <c r="AW2">
+        <v>607726.0655921838</v>
+      </c>
+      <c r="AX2">
+        <v>637886.4033597432</v>
+      </c>
+      <c r="AY2">
+        <v>666216.2851263387</v>
+      </c>
+      <c r="AZ2">
+        <v>691660.9489898768</v>
+      </c>
+      <c r="BA2">
+        <v>715660.3032255044</v>
+      </c>
+      <c r="BB2">
+        <v>738492.4886888437</v>
+      </c>
+      <c r="BC2">
+        <v>761125.4484127125</v>
+      </c>
+      <c r="BD2">
+        <v>783088.0778851437</v>
+      </c>
+      <c r="BE2">
+        <v>804081.9517934917</v>
+      </c>
+      <c r="BF2">
+        <v>824739.3313203618</v>
+      </c>
+      <c r="BG2">
+        <v>844984.2896002221</v>
+      </c>
+      <c r="BH2">
+        <v>865959.4458197725</v>
+      </c>
+      <c r="BI2">
+        <v>888057.438173309</v>
+      </c>
+      <c r="BJ2">
+        <v>911680.3253328927</v>
+      </c>
+      <c r="BK2">
+        <v>936934.3745321953</v>
+      </c>
+      <c r="BL2">
+        <v>963439.9516126215</v>
+      </c>
+      <c r="BM2">
+        <v>991782.9167245643</v>
+      </c>
+      <c r="BN2">
+        <v>1021957.956161035</v>
+      </c>
+      <c r="BO2">
+        <v>1053779.620822929</v>
+      </c>
+      <c r="BP2">
+        <v>1086609.421761547</v>
+      </c>
+      <c r="BQ2">
+        <v>1119694.318347712</v>
+      </c>
+      <c r="BR2">
+        <v>1153116.165859993</v>
+      </c>
+      <c r="BS2">
+        <v>1186730.964474261</v>
+      </c>
+      <c r="BT2">
+        <v>1220208.762323881</v>
+      </c>
+      <c r="BU2">
+        <v>1252919.360050276</v>
+      </c>
+      <c r="BV2">
+        <v>1283999.847403038</v>
+      </c>
+      <c r="BW2">
+        <v>1313627.597567232</v>
+      </c>
+      <c r="BX2">
+        <v>1342177.619434201</v>
+      </c>
+      <c r="BY2">
+        <v>1370041.733149073</v>
+      </c>
+      <c r="BZ2">
+        <v>1397374.850617888</v>
+      </c>
+      <c r="CA2">
+        <v>1423905.042561915</v>
+      </c>
+      <c r="CB2">
+        <v>1449919.883983312</v>
+      </c>
+      <c r="CC2">
+        <v>1475631.752995743</v>
+      </c>
+      <c r="CD2">
+        <v>1501322.456059524</v>
+      </c>
+      <c r="CE2">
+        <v>1527279.971969773</v>
+      </c>
+      <c r="CF2">
+        <v>1553393.420867017</v>
+      </c>
+      <c r="CG2">
+        <v>1580079.965821564</v>
+      </c>
+      <c r="CH2">
+        <v>1607351.023250136</v>
+      </c>
+      <c r="CI2">
+        <v>1635178.792570728</v>
+      </c>
+      <c r="CJ2">
+        <v>1663537.691962446</v>
+      </c>
+      <c r="CK2">
+        <v>1691826.061382022</v>
+      </c>
+      <c r="CL2">
+        <v>1720326.793418986</v>
+      </c>
+      <c r="CM2">
+        <v>1748781.652147565</v>
+      </c>
+      <c r="CN2">
+        <v>1776976.817082524</v>
+      </c>
+      <c r="CO2">
+        <v>1804780.335823905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>104.1613861802878</v>
+      </c>
+      <c r="E3">
+        <v>240.3246786836385</v>
+      </c>
+      <c r="F3">
+        <v>376.2465614210258</v>
+      </c>
+      <c r="G3">
+        <v>505.3130203257211</v>
+      </c>
+      <c r="H3">
+        <v>679.2117847991997</v>
+      </c>
+      <c r="I3">
+        <v>804.1617280336669</v>
+      </c>
+      <c r="J3">
+        <v>1031.517071013137</v>
+      </c>
+      <c r="K3">
+        <v>1257.30446463605</v>
+      </c>
+      <c r="L3">
+        <v>1458.037281538976</v>
+      </c>
+      <c r="M3">
+        <v>1642.780419943782</v>
+      </c>
+      <c r="N3">
+        <v>2040.368014989087</v>
+      </c>
+      <c r="O3">
+        <v>2280.993419237396</v>
+      </c>
+      <c r="P3">
+        <v>2765.2336352881</v>
+      </c>
+      <c r="Q3">
+        <v>3287.922264204371</v>
+      </c>
+      <c r="R3">
+        <v>3849.500706614153</v>
+      </c>
+      <c r="S3">
+        <v>5079.9908661386</v>
+      </c>
+      <c r="T3">
+        <v>6397.569327731249</v>
+      </c>
+      <c r="U3">
+        <v>7803.12994368954</v>
+      </c>
+      <c r="V3">
+        <v>9298.171149600683</v>
+      </c>
+      <c r="W3">
+        <v>10883.88615462876</v>
+      </c>
+      <c r="X3">
+        <v>12476.60424576789</v>
+      </c>
+      <c r="Y3">
+        <v>14156.00114287771</v>
+      </c>
+      <c r="Z3">
+        <v>15922.72037932247</v>
+      </c>
+      <c r="AA3">
+        <v>17778.40288131963</v>
+      </c>
+      <c r="AB3">
+        <v>19725.31609259981</v>
+      </c>
+      <c r="AC3">
+        <v>20629.24628106073</v>
+      </c>
+      <c r="AD3">
+        <v>21557.13871587471</v>
+      </c>
+      <c r="AE3">
+        <v>22515.38495340388</v>
+      </c>
+      <c r="AF3">
+        <v>23503.13895695403</v>
+      </c>
+      <c r="AG3">
+        <v>24525.20307444589</v>
+      </c>
+      <c r="AH3">
+        <v>25172.01381707067</v>
+      </c>
+      <c r="AI3">
+        <v>25823.80720911822</v>
+      </c>
+      <c r="AJ3">
+        <v>26503.90200778258</v>
+      </c>
+      <c r="AK3">
+        <v>27235.15184808662</v>
+      </c>
+      <c r="AL3">
+        <v>28016.33984893075</v>
+      </c>
+      <c r="AM3">
+        <v>29053.60706042954</v>
+      </c>
+      <c r="AN3">
+        <v>30212.79821694857</v>
+      </c>
+      <c r="AO3">
+        <v>31540.49306822973</v>
+      </c>
+      <c r="AP3">
+        <v>33085.06330426298</v>
+      </c>
+      <c r="AQ3">
+        <v>34784.95985945085</v>
+      </c>
+      <c r="AR3">
+        <v>36897.79629230638</v>
+      </c>
+      <c r="AS3">
+        <v>39096.66272135956</v>
+      </c>
+      <c r="AT3">
+        <v>41366.63913220818</v>
+      </c>
+      <c r="AU3">
+        <v>43693.32306194363</v>
+      </c>
+      <c r="AV3">
+        <v>46076.11242641718</v>
+      </c>
+      <c r="AW3">
+        <v>48570.46447863612</v>
+      </c>
+      <c r="AX3">
+        <v>51036.60655298665</v>
+      </c>
+      <c r="AY3">
+        <v>53349.06218158999</v>
+      </c>
+      <c r="AZ3">
+        <v>55417.12254431377</v>
+      </c>
+      <c r="BA3">
+        <v>57362.75667833677</v>
+      </c>
+      <c r="BB3">
+        <v>59216.47515352121</v>
+      </c>
+      <c r="BC3">
+        <v>61053.89921345646</v>
+      </c>
+      <c r="BD3">
+        <v>62834.31278432551</v>
+      </c>
+      <c r="BE3">
+        <v>64531.63587988313</v>
+      </c>
+      <c r="BF3">
+        <v>66199.80558510195</v>
+      </c>
+      <c r="BG3">
+        <v>67837.62824024723</v>
+      </c>
+      <c r="BH3">
+        <v>69537.78081891326</v>
+      </c>
+      <c r="BI3">
+        <v>71333.93368242441</v>
+      </c>
+      <c r="BJ3">
+        <v>73260.63461580855</v>
+      </c>
+      <c r="BK3">
+        <v>75326.92053372212</v>
+      </c>
+      <c r="BL3">
+        <v>77503.14180924771</v>
+      </c>
+      <c r="BM3">
+        <v>79836.57690387165</v>
+      </c>
+      <c r="BN3">
+        <v>82326.61966420012</v>
+      </c>
+      <c r="BO3">
+        <v>84957.07395912061</v>
+      </c>
+      <c r="BP3">
+        <v>87672.56461925669</v>
+      </c>
+      <c r="BQ3">
+        <v>90409.54289378357</v>
+      </c>
+      <c r="BR3">
+        <v>93173.31631101987</v>
+      </c>
+      <c r="BS3">
+        <v>95951.35711179324</v>
+      </c>
+      <c r="BT3">
+        <v>98715.12644431407</v>
+      </c>
+      <c r="BU3">
+        <v>101410.2880346279</v>
+      </c>
+      <c r="BV3">
+        <v>103964.5996300201</v>
+      </c>
+      <c r="BW3">
+        <v>106391.6460431712</v>
+      </c>
+      <c r="BX3">
+        <v>108723.8773546446</v>
+      </c>
+      <c r="BY3">
+        <v>110995.0494457345</v>
+      </c>
+      <c r="BZ3">
+        <v>113218.487150716</v>
+      </c>
+      <c r="CA3">
+        <v>115372.5839154031</v>
+      </c>
+      <c r="CB3">
+        <v>117480.326280163</v>
+      </c>
+      <c r="CC3">
+        <v>119559.7447597086</v>
+      </c>
+      <c r="CD3">
+        <v>121634.5956748616</v>
+      </c>
+      <c r="CE3">
+        <v>123728.9256324004</v>
+      </c>
+      <c r="CF3">
+        <v>125834.5474411483</v>
+      </c>
+      <c r="CG3">
+        <v>127984.3210447166</v>
+      </c>
+      <c r="CH3">
+        <v>130178.4576501532</v>
+      </c>
+      <c r="CI3">
+        <v>132413.8288925012</v>
+      </c>
+      <c r="CJ3">
+        <v>134687.436862816</v>
+      </c>
+      <c r="CK3">
+        <v>136950.3834215288</v>
+      </c>
+      <c r="CL3">
+        <v>139223.5981441923</v>
+      </c>
+      <c r="CM3">
+        <v>141485.3328380077</v>
+      </c>
+      <c r="CN3">
+        <v>143717.7933823656</v>
+      </c>
+      <c r="CO3">
+        <v>145910.058085605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2058513.65379853</v>
+      </c>
+      <c r="E4">
+        <v>3907553.230330633</v>
+      </c>
+      <c r="F4">
+        <v>5521744.765590403</v>
+      </c>
+      <c r="G4">
+        <v>7394150.558340119</v>
+      </c>
+      <c r="H4">
+        <v>9451736.691109944</v>
+      </c>
+      <c r="I4">
+        <v>11407308.04136399</v>
+      </c>
+      <c r="J4">
+        <v>13533414.90086083</v>
+      </c>
+      <c r="K4">
+        <v>15483596.7567296</v>
+      </c>
+      <c r="L4">
+        <v>17420705.30515669</v>
+      </c>
+      <c r="M4">
+        <v>20004377.52462643</v>
+      </c>
+      <c r="N4">
+        <v>22456214.8300345</v>
+      </c>
+      <c r="O4">
+        <v>24884914.02121224</v>
+      </c>
+      <c r="P4">
+        <v>37473059.88997898</v>
+      </c>
+      <c r="Q4">
+        <v>50123310.5156094</v>
+      </c>
+      <c r="R4">
+        <v>62820814.81483862</v>
+      </c>
+      <c r="S4">
+        <v>102457607.1460356</v>
+      </c>
+      <c r="T4">
+        <v>142170565.8009153</v>
+      </c>
+      <c r="U4">
+        <v>181971035.4928867</v>
+      </c>
+      <c r="V4">
+        <v>221868367.5873567</v>
+      </c>
+      <c r="W4">
+        <v>261869734.0604088</v>
+      </c>
+      <c r="X4">
+        <v>303055445.1820404</v>
+      </c>
+      <c r="Y4">
+        <v>344355992.0402195</v>
+      </c>
+      <c r="Z4">
+        <v>385764357.2067692</v>
+      </c>
+      <c r="AA4">
+        <v>427285839.3450571</v>
+      </c>
+      <c r="AB4">
+        <v>468927029.4393994</v>
+      </c>
+      <c r="AC4">
+        <v>480167104.9780335</v>
+      </c>
+      <c r="AD4">
+        <v>491535293.0300968</v>
+      </c>
+      <c r="AE4">
+        <v>503048193.1405582</v>
+      </c>
+      <c r="AF4">
+        <v>514681137.8138357</v>
+      </c>
+      <c r="AG4">
+        <v>526464051.5284246</v>
+      </c>
+      <c r="AH4">
+        <v>528837431.9510716</v>
+      </c>
+      <c r="AI4">
+        <v>531227849.0029504</v>
+      </c>
+      <c r="AJ4">
+        <v>533763122.4994493</v>
+      </c>
+      <c r="AK4">
+        <v>536593922.1800926</v>
+      </c>
+      <c r="AL4">
+        <v>539789305.8709484</v>
+      </c>
+      <c r="AM4">
+        <v>547806853.211853</v>
+      </c>
+      <c r="AN4">
+        <v>556530253.9875604</v>
+      </c>
+      <c r="AO4">
+        <v>566068484.1451881</v>
+      </c>
+      <c r="AP4">
+        <v>576523411.4056263</v>
+      </c>
+      <c r="AQ4">
+        <v>587579204.3414351</v>
+      </c>
+      <c r="AR4">
+        <v>605276294.4879475</v>
+      </c>
+      <c r="AS4">
+        <v>623140509.843155</v>
+      </c>
+      <c r="AT4">
+        <v>641045204.2342166</v>
+      </c>
+      <c r="AU4">
+        <v>658862188.1945121</v>
+      </c>
+      <c r="AV4">
+        <v>676504254.3613275</v>
+      </c>
+      <c r="AW4">
+        <v>695553067.2243713</v>
+      </c>
+      <c r="AX4">
+        <v>714101838.6243293</v>
+      </c>
+      <c r="AY4">
+        <v>731861938.162142</v>
+      </c>
+      <c r="AZ4">
+        <v>748663010.5634938</v>
+      </c>
+      <c r="BA4">
+        <v>764792697.5791969</v>
+      </c>
+      <c r="BB4">
+        <v>779326926.8503809</v>
+      </c>
+      <c r="BC4">
+        <v>793480893.4215082</v>
+      </c>
+      <c r="BD4">
+        <v>807295481.4632589</v>
+      </c>
+      <c r="BE4">
+        <v>820885635.5616033</v>
+      </c>
+      <c r="BF4">
+        <v>834297027.2466905</v>
+      </c>
+      <c r="BG4">
+        <v>846909683.0200235</v>
+      </c>
+      <c r="BH4">
+        <v>859475293.0205007</v>
+      </c>
+      <c r="BI4">
+        <v>872202362.9247847</v>
+      </c>
+      <c r="BJ4">
+        <v>885216225.6995261</v>
+      </c>
+      <c r="BK4">
+        <v>898555303.343877</v>
+      </c>
+      <c r="BL4">
+        <v>912066980.4070234</v>
+      </c>
+      <c r="BM4">
+        <v>925892930.4675169</v>
+      </c>
+      <c r="BN4">
+        <v>939956341.2572699</v>
+      </c>
+      <c r="BO4">
+        <v>954156640.7444181</v>
+      </c>
+      <c r="BP4">
+        <v>968369904.6130615</v>
+      </c>
+      <c r="BQ4">
+        <v>982483225.5505334</v>
+      </c>
+      <c r="BR4">
+        <v>996480066.7405964</v>
+      </c>
+      <c r="BS4">
+        <v>1010322516.700329</v>
+      </c>
+      <c r="BT4">
+        <v>1023949216.489348</v>
+      </c>
+      <c r="BU4">
+        <v>1037264849.160509</v>
+      </c>
+      <c r="BV4">
+        <v>1050010527.639596</v>
+      </c>
+      <c r="BW4">
+        <v>1062370392.144362</v>
+      </c>
+      <c r="BX4">
+        <v>1074517392.680099</v>
+      </c>
+      <c r="BY4">
+        <v>1086608862.235403</v>
+      </c>
+      <c r="BZ4">
+        <v>1098601948.246971</v>
+      </c>
+      <c r="CA4">
+        <v>1110216195.746349</v>
+      </c>
+      <c r="CB4">
+        <v>1121711030.501039</v>
+      </c>
+      <c r="CC4">
+        <v>1133085891.720585</v>
+      </c>
+      <c r="CD4">
+        <v>1144331749.115923</v>
+      </c>
+      <c r="CE4">
+        <v>1155406360.991584</v>
+      </c>
+      <c r="CF4">
+        <v>1166032591.893445</v>
+      </c>
+      <c r="CG4">
+        <v>1176782429.555268</v>
+      </c>
+      <c r="CH4">
+        <v>1187674878.075876</v>
+      </c>
+      <c r="CI4">
+        <v>1198708078.066411</v>
+      </c>
+      <c r="CJ4">
+        <v>1209864759.251355</v>
+      </c>
+      <c r="CK4">
+        <v>1220389818.913447</v>
+      </c>
+      <c r="CL4">
+        <v>1230953925.33748</v>
+      </c>
+      <c r="CM4">
+        <v>1241511782.258089</v>
+      </c>
+      <c r="CN4">
+        <v>1252033038.197543</v>
+      </c>
+      <c r="CO4">
+        <v>1262502169.264783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2799009.773418657</v>
+      </c>
+      <c r="E5">
+        <v>4673503.184040016</v>
+      </c>
+      <c r="F5">
+        <v>6425787.290452417</v>
+      </c>
+      <c r="G5">
+        <v>8114813.816336984</v>
+      </c>
+      <c r="H5">
+        <v>9735614.757548455</v>
+      </c>
+      <c r="I5">
+        <v>11760764.89888729</v>
+      </c>
+      <c r="J5">
+        <v>13989014.841939</v>
+      </c>
+      <c r="K5">
+        <v>15928280.59660495</v>
+      </c>
+      <c r="L5">
+        <v>17723013.30472877</v>
+      </c>
+      <c r="M5">
+        <v>19731419.63024265</v>
+      </c>
+      <c r="N5">
+        <v>21843151.6959656</v>
+      </c>
+      <c r="O5">
+        <v>24593261.27635394</v>
+      </c>
+      <c r="P5">
+        <v>45826437.2648488</v>
+      </c>
+      <c r="Q5">
+        <v>67090605.20986524</v>
+      </c>
+      <c r="R5">
+        <v>88392922.93902287</v>
+      </c>
+      <c r="S5">
+        <v>158960403.5449625</v>
+      </c>
+      <c r="T5">
+        <v>229582911.8060847</v>
+      </c>
+      <c r="U5">
+        <v>300270356.4185361</v>
+      </c>
+      <c r="V5">
+        <v>371034221.7609425</v>
+      </c>
+      <c r="W5">
+        <v>441888551.6829374</v>
+      </c>
+      <c r="X5">
+        <v>516493519.7468804</v>
+      </c>
+      <c r="Y5">
+        <v>591228390.9428173</v>
+      </c>
+      <c r="Z5">
+        <v>666122476.7794781</v>
+      </c>
+      <c r="AA5">
+        <v>741215386.6942183</v>
+      </c>
+      <c r="AB5">
+        <v>816560745.2415695</v>
+      </c>
+      <c r="AC5">
+        <v>837913272.6597018</v>
+      </c>
+      <c r="AD5">
+        <v>859685638.7363816</v>
+      </c>
+      <c r="AE5">
+        <v>882001395.418837</v>
+      </c>
+      <c r="AF5">
+        <v>905016458.2359015</v>
+      </c>
+      <c r="AG5">
+        <v>928921472.5828415</v>
+      </c>
+      <c r="AH5">
+        <v>935743881.0748014</v>
+      </c>
+      <c r="AI5">
+        <v>943680125.5007532</v>
+      </c>
+      <c r="AJ5">
+        <v>952951643.9032288</v>
+      </c>
+      <c r="AK5">
+        <v>964119828.2581323</v>
+      </c>
+      <c r="AL5">
+        <v>977474124.1791378</v>
+      </c>
+      <c r="AM5">
+        <v>1000923681.960549</v>
+      </c>
+      <c r="AN5">
+        <v>1026930469.824703</v>
+      </c>
+      <c r="AO5">
+        <v>1055543459.412176</v>
+      </c>
+      <c r="AP5">
+        <v>1086684427.040971</v>
+      </c>
+      <c r="AQ5">
+        <v>1120129875.561066</v>
+      </c>
+      <c r="AR5">
+        <v>1166201544.62709</v>
+      </c>
+      <c r="AS5">
+        <v>1213743415.064785</v>
+      </c>
+      <c r="AT5">
+        <v>1262179439.08315</v>
+      </c>
+      <c r="AU5">
+        <v>1310873077.891667</v>
+      </c>
+      <c r="AV5">
+        <v>1359176053.549527</v>
+      </c>
+      <c r="AW5">
+        <v>1409602764.754277</v>
+      </c>
+      <c r="AX5">
+        <v>1458505178.25695</v>
+      </c>
+      <c r="AY5">
+        <v>1505479288.361151</v>
+      </c>
+      <c r="AZ5">
+        <v>1550263693.883306</v>
+      </c>
+      <c r="BA5">
+        <v>1592748071.209261</v>
+      </c>
+      <c r="BB5">
+        <v>1631150507.613808</v>
+      </c>
+      <c r="BC5">
+        <v>1667459184.717664</v>
+      </c>
+      <c r="BD5">
+        <v>1701953390.608589</v>
+      </c>
+      <c r="BE5">
+        <v>1734992054.148193</v>
+      </c>
+      <c r="BF5">
+        <v>1766978292.214547</v>
+      </c>
+      <c r="BG5">
+        <v>1797318126.843365</v>
+      </c>
+      <c r="BH5">
+        <v>1827397251.042184</v>
+      </c>
+      <c r="BI5">
+        <v>1857541144.234111</v>
+      </c>
+      <c r="BJ5">
+        <v>1888000263.367806</v>
+      </c>
+      <c r="BK5">
+        <v>1918941073.04772</v>
+      </c>
+      <c r="BL5">
+        <v>1950308044.52969</v>
+      </c>
+      <c r="BM5">
+        <v>1982240212.60218</v>
+      </c>
+      <c r="BN5">
+        <v>2014668430.822616</v>
+      </c>
+      <c r="BO5">
+        <v>2047464413.130053</v>
+      </c>
+      <c r="BP5">
+        <v>2080454909.313031</v>
+      </c>
+      <c r="BQ5">
+        <v>2113468982.757048</v>
+      </c>
+      <c r="BR5">
+        <v>2146259876.861338</v>
+      </c>
+      <c r="BS5">
+        <v>2178614785.501744</v>
+      </c>
+      <c r="BT5">
+        <v>2210336843.284059</v>
+      </c>
+      <c r="BU5">
+        <v>2241255828.809201</v>
+      </c>
+      <c r="BV5">
+        <v>2270949852.511585</v>
+      </c>
+      <c r="BW5">
+        <v>2299607179.114239</v>
+      </c>
+      <c r="BX5">
+        <v>2327169220.237364</v>
+      </c>
+      <c r="BY5">
+        <v>2353613783.658384</v>
+      </c>
+      <c r="BZ5">
+        <v>2378949530.496</v>
+      </c>
+      <c r="CA5">
+        <v>2402699381.979633</v>
+      </c>
+      <c r="CB5">
+        <v>2425418513.214042</v>
+      </c>
+      <c r="CC5">
+        <v>2447158076.410806</v>
+      </c>
+      <c r="CD5">
+        <v>2467965391.296289</v>
+      </c>
+      <c r="CE5">
+        <v>2487876383.797828</v>
+      </c>
+      <c r="CF5">
+        <v>2506036951.677702</v>
+      </c>
+      <c r="CG5">
+        <v>2523318492.672382</v>
+      </c>
+      <c r="CH5">
+        <v>2539697922.755872</v>
+      </c>
+      <c r="CI5">
+        <v>2555132068.599988</v>
+      </c>
+      <c r="CJ5">
+        <v>2569561020.435366</v>
+      </c>
+      <c r="CK5">
+        <v>2581542805.09052</v>
+      </c>
+      <c r="CL5">
+        <v>2592369765.863513</v>
+      </c>
+      <c r="CM5">
+        <v>2601964041.218555</v>
+      </c>
+      <c r="CN5">
+        <v>2610253688.930134</v>
+      </c>
+      <c r="CO5">
+        <v>2617177801.754403</v>
       </c>
     </row>
   </sheetData>
